--- a/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-05-ExcelAvancado1-Revisao-OrdemMatematica.xlsx
+++ b/02-Avancado1-Funcoes/10-ProfessorRespondidas/Aula-05-ExcelAvancado1-Revisao-OrdemMatematica.xlsx
@@ -1,114 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robson.svaamonde\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57E2421-38BB-4C16-A339-AD388186F82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Ordem Matemática" sheetId="1" r:id="rId1"/>
     <sheet name="Brincadeira" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
-  <si>
-    <t>Quebrando a ordem das operações matemática (Convenção)</t>
-  </si>
-  <si>
-    <t>1. Parênteses, 2. Expoente, 3. Divisão, 4. Multiplicação, 5. Subtração e 6. Adição (Matific.com.br)</t>
-  </si>
-  <si>
-    <t>Ordem: 1º % Porcentagem, 2º ^ Exponenciação, 3º / Divisão, 4º * Multiplicação, 5º - Subtração/Negação e 6º + Adição</t>
-  </si>
-  <si>
-    <t>Observação: Lembre-se que no caso de Subtração/Negação temos a regra de sinais primeiro (++, --, -+ e +-)</t>
-  </si>
-  <si>
-    <t>Observação: Para facilitar no Excel, os Parênteses são representados por cores na abertura e fechamento</t>
-  </si>
-  <si>
-    <t>Observação: O cálculo utilizando o Parênteses será feito de dentro para fora (Quinto Nível para o Primeiro Nível)</t>
-  </si>
-  <si>
-    <t>Fórmula Matemática</t>
-  </si>
-  <si>
-    <t>Cálculo</t>
-  </si>
-  <si>
-    <t>Ordem de Execução / Explicação</t>
-  </si>
-  <si>
-    <t>=3*3+2</t>
-  </si>
-  <si>
-    <t>=9+3*2^2</t>
-  </si>
-  <si>
-    <t>=10+10-10*10/10</t>
-  </si>
-  <si>
-    <t>=7+7/7+7*7-7</t>
-  </si>
-  <si>
-    <t>Pense em um número.:</t>
-  </si>
-  <si>
-    <t>&lt;-- digite aqui o número que você pensou</t>
-  </si>
-  <si>
-    <t>Eu empresto para você a mesma quantia.:</t>
-  </si>
-  <si>
-    <t>Você achou na rua uma nota de.:</t>
-  </si>
-  <si>
-    <t>&lt;-- digite aqui o valor da nota que você achou</t>
-  </si>
-  <si>
-    <t>Somar todos os valores.:</t>
-  </si>
-  <si>
-    <t>Você colocou a metade do valor no Banco..:</t>
-  </si>
-  <si>
-    <t>&lt;-- divida o valor total que você tem por 2 (dois)</t>
-  </si>
-  <si>
-    <t>Devolva o que eu te emprestei..:</t>
-  </si>
-  <si>
-    <t>Você ficou apenas com o Valor.:</t>
-  </si>
-  <si>
-    <t>&lt;-- subtraia o valor que você tem menos o número que você pensou</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="63"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Robson Vaamonde
 LinkedIn: </t>
     </r>
@@ -118,7 +34,7 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.linkedin.com/in/robson-vaamonde-0b029028/</t>
     </r>
@@ -128,7 +44,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 Instagram: </t>
@@ -139,7 +55,7 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.instagram.com/procedimentoem/</t>
     </r>
@@ -149,7 +65,7 @@
         <sz val="11"/>
         <color indexed="63"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 YouTUBE: </t>
@@ -160,13 +76,38 @@
         <sz val="11"/>
         <color rgb="FF0070C0"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.youtube.com/boraparapratica</t>
     </r>
   </si>
   <si>
+    <t>Quebrando a ordem das operações matemática (Convenção)</t>
+  </si>
+  <si>
+    <t>1. Parênteses, 2. Expoente, 3. Divisão, 4. Multiplicação, 5. Subtração e 6. Adição (Matific.com.br)</t>
+  </si>
+  <si>
+    <t>Ordem: 1º % Porcentagem, 2º ^ Exponenciação, 3º / Divisão, 4º * Multiplicação, 5º - Subtração/Negação e 6º + Adição</t>
+  </si>
+  <si>
+    <t>Observação: Lembre-se que no caso de Subtração/Negação temos a regra de sinais primeiro (++, --, -+ e +-)</t>
+  </si>
+  <si>
+    <t>Parênteses: destaca a prioridade do cálculo (Parênteses () - Não usamos Colchetes [] ou Chaves {} no cálculo)</t>
+  </si>
+  <si>
+    <t>Observação: Para facilitar no Excel, os Parênteses são representados por cores na abertura e fechamento</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Exemplo: = (Primeiro Nível+</t>
     </r>
     <r>
@@ -175,7 +116,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -185,7 +126,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Segundo Nível+</t>
     </r>
@@ -195,7 +136,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -205,7 +146,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Terceiro Nível+</t>
     </r>
@@ -215,7 +156,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -225,7 +166,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Quarto Nível</t>
     </r>
@@ -235,7 +176,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -245,7 +186,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>+</t>
     </r>
@@ -255,7 +196,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -265,7 +206,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Quarto Nível+</t>
     </r>
@@ -275,7 +216,7 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -285,7 +226,7 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Quinto Nível</t>
     </r>
@@ -295,7 +236,7 @@
         <sz val="11"/>
         <color rgb="FFFF3399"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -305,7 +246,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -315,7 +256,7 @@
         <sz val="11"/>
         <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -325,7 +266,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -335,16 +276,22 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>Parênteses: destaca a prioridade do cálculo (Parênteses () - Não usamos Colchetes [] ou Chaves {} no cálculo)</t>
+    <t>Observação: O cálculo utilizando o Parênteses será feito de dentro para fora (Quinto Nível para o Primeiro Nível)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">DICA: </t>
     </r>
     <r>
@@ -353,65 +300,164 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>lembre-se da escola: Primeiro Parênteses, depois Colchetes e por fim Chaves, você só irá usar os Parênteses.</t>
     </r>
   </si>
   <si>
+    <t>Fórmula Matemática</t>
+  </si>
+  <si>
+    <t>Cálculo</t>
+  </si>
+  <si>
+    <t>Ordem de Execução / Explicação</t>
+  </si>
+  <si>
+    <t>=3*3+2</t>
+  </si>
+  <si>
+    <t>1. Multiplicação 3*3=9 | 2. Adição 9+2=11</t>
+  </si>
+  <si>
+    <t>=(3*(3+2))</t>
+  </si>
+  <si>
+    <t>1. Adição 3+2=5 | 2. Multiplicação 5*3=15</t>
+  </si>
+  <si>
+    <t>=9+3*2^2</t>
+  </si>
+  <si>
+    <t>1. Exponenciação 2^2=4 | 2. Multiplicação 3*4=12 | 3. Adição 12+9=21</t>
+  </si>
+  <si>
+    <t>=((9+3)*(2^2))</t>
+  </si>
+  <si>
+    <t>1. Adição 9+3=12 e Exponenciação 2^2=4 | 2. Multiplicação 12*4=48</t>
+  </si>
+  <si>
+    <t>=(9+((3*2)^2))</t>
+  </si>
+  <si>
+    <t>1. Multiplicação 3*2=6 | 2. Exponenciação 6^2=36 | 3. Adição 9+36=45</t>
+  </si>
+  <si>
+    <t>=((9+(3*2))^2)</t>
+  </si>
+  <si>
+    <t>1. Multiplicação 3*2=6 | 2. Adição 9+6=15 | 3. Exponenciação 15^2=225</t>
+  </si>
+  <si>
+    <t>=(((9+3)*2)^2)</t>
+  </si>
+  <si>
+    <t>1. Adição 9+3=12 | 2. Multiplicação 12*2=24 | 3. Exponenciação 24^276</t>
+  </si>
+  <si>
+    <t>=10+10-10*10/10</t>
+  </si>
+  <si>
+    <t>1. Divisão 10/10=1 | 2. Subtração 10-10=0 | 3. Multiplicação 10*1=10</t>
+  </si>
+  <si>
+    <t>=(10+((10-(10*10))/10))</t>
+  </si>
+  <si>
+    <t>1. Multiplicação 10*10=100 | 2. Subtração 10-100=-90 | 3. Divisão -90/10=-9 | 4. Adição -9+10=1</t>
+  </si>
+  <si>
+    <t>=7+7/7+7*7-7</t>
+  </si>
+  <si>
+    <t>1. Divisão 7/7=1 | 2. Multiplicação 7*7=49 | 3. Subtração 49-7=42 | 4. Adição 7+1+42=50</t>
+  </si>
+  <si>
+    <t>=(7+(7/(7+(7*(7-7)))))</t>
+  </si>
+  <si>
+    <t>1. Subtração 7-7=0 | 2. Multiplicação 7*0=0 | 3. Adição 7+0=7 | 4. Divisão 7/7=1 | 5. Adição 7+1=8</t>
+  </si>
+  <si>
+    <t>A ordem em que o Excel efetua operações em fórmulas</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/a-ordem-em-que-o-excel-efetua-opera%C3%A7%C3%B5es-em-f%C3%B3rmulas-28eaf0d7-7058-4eff-a8ea-0a835fafadb8</t>
+  </si>
+  <si>
     <t>Operadores de cálculo e precedência no Excel</t>
   </si>
   <si>
     <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a</t>
   </si>
   <si>
+    <t>Operadores de cálculo e precedência</t>
+  </si>
+  <si>
+    <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-36de9366-46fe-43a3-bfa8-cf6d8068eacc</t>
+  </si>
+  <si>
     <t>Usando caracteres curinga em pesquisas</t>
   </si>
   <si>
     <t>https://support.microsoft.com/pt-br/office/usando-caracteres-curinga-em-pesquisas-ef94362e-9999-4350-ad74-4d2371110adb</t>
   </si>
   <si>
-    <t>A ordem em que o Excel efetua operações em fórmulas</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/pt-br/office/a-ordem-em-que-o-excel-efetua-opera%C3%A7%C3%B5es-em-f%C3%B3rmulas-28eaf0d7-7058-4eff-a8ea-0a835fafadb8</t>
-  </si>
-  <si>
-    <t>Operadores de cálculo e precedência</t>
-  </si>
-  <si>
-    <t>https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-36de9366-46fe-43a3-bfa8-cf6d8068eacc</t>
+    <t>Pense em um número.:</t>
   </si>
   <si>
     <t>&lt;-- digite aqui o número que você pensou (Qualquer número)</t>
   </si>
   <si>
+    <t>Eu empresto para você a mesma quantia.:</t>
+  </si>
+  <si>
     <t>&lt;-- digite aqui o mesmo número que você pensou (Exatamente)</t>
   </si>
   <si>
+    <t>Você achou na rua uma nota de.:</t>
+  </si>
+  <si>
+    <t>&lt;-- digite aqui o valor da nota que você achou</t>
+  </si>
+  <si>
+    <t>Somar todos os valores.:</t>
+  </si>
+  <si>
     <t>&lt;-- faça a somatória de todos os valores (somar os três valores)</t>
   </si>
   <si>
-    <t>=(3*(3+2))</t>
-  </si>
-  <si>
-    <t>=((9+3)*(2^2))</t>
-  </si>
-  <si>
-    <t>=(9+((3*2)^2))</t>
-  </si>
-  <si>
-    <t>=((9+(3*2))^2)</t>
-  </si>
-  <si>
-    <t>=(((9+3)*2)^2)</t>
+    <t>Você colocou a metade do valor no Banco..:</t>
+  </si>
+  <si>
+    <t>&lt;-- divida o valor total que você tem por 2 (dois)</t>
+  </si>
+  <si>
+    <t>Devolva o que eu te emprestei..:</t>
+  </si>
+  <si>
+    <t>&lt;-- digite aqui o número que você pensou</t>
+  </si>
+  <si>
+    <t>Você ficou apenas com o Valor.:</t>
+  </si>
+  <si>
+    <t>&lt;-- subtraia o valor que você tem menos o número que você pensou</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,10 +466,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -436,15 +495,57 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -455,129 +556,218 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="63"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3399"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10.5"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="20"/>
-      <color indexed="63"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3399"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,18 +776,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -620,16 +996,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,97 +1263,132 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Ênfase 6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Ênfase 6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Ênfase 6" xfId="3" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 5" xfId="4" builtinId="47"/>
+    <cellStyle name="Ênfase 5" xfId="5" builtinId="45"/>
+    <cellStyle name="Ênfase 4" xfId="6" builtinId="41"/>
+    <cellStyle name="Título 4" xfId="7" builtinId="19"/>
+    <cellStyle name="60% - Ênfase 3" xfId="8" builtinId="40"/>
+    <cellStyle name="20% - Ênfase 3" xfId="9" builtinId="38"/>
+    <cellStyle name="Ênfase 3" xfId="10" builtinId="37"/>
+    <cellStyle name="Título 3" xfId="11" builtinId="18"/>
+    <cellStyle name="60% - Ênfase 2" xfId="12" builtinId="36"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23"/>
+    <cellStyle name="40% - Ênfase 2" xfId="14" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 5" xfId="15" builtinId="48"/>
+    <cellStyle name="Ênfase 2" xfId="16" builtinId="33"/>
+    <cellStyle name="Ênfase 6" xfId="17" builtinId="49"/>
+    <cellStyle name="40% - Ênfase 1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Ênfase 1" xfId="19" builtinId="30"/>
+    <cellStyle name="60% - Ênfase 4" xfId="20" builtinId="44"/>
+    <cellStyle name="Ênfase 1" xfId="21" builtinId="29"/>
+    <cellStyle name="40% - Ênfase 4" xfId="22" builtinId="43"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Ênfase 4" xfId="24" builtinId="42"/>
+    <cellStyle name="Saída" xfId="25" builtinId="21"/>
+    <cellStyle name="Hyperlink seguido" xfId="26" builtinId="9"/>
+    <cellStyle name="Moeda [0]" xfId="27" builtinId="7"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bom" xfId="29" builtinId="26"/>
+    <cellStyle name="40% - Ênfase 3" xfId="30" builtinId="39"/>
+    <cellStyle name="Texto de Aviso" xfId="31" builtinId="11"/>
+    <cellStyle name="Cálculo" xfId="32" builtinId="22"/>
+    <cellStyle name="Entrada" xfId="33" builtinId="20"/>
+    <cellStyle name="Texto Explicativo" xfId="34" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Título" xfId="36" builtinId="15"/>
+    <cellStyle name="Observação" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - Ênfase 2" xfId="38" builtinId="34"/>
+    <cellStyle name="60% - Ênfase 1" xfId="39" builtinId="32"/>
+    <cellStyle name="Título 2" xfId="40" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8"/>
+    <cellStyle name="Célula Vinculada" xfId="42" builtinId="24"/>
+    <cellStyle name="Comma" xfId="43" builtinId="3"/>
+    <cellStyle name="Porcentagem" xfId="44" builtinId="5"/>
+    <cellStyle name="Neutro" xfId="45" builtinId="28"/>
+    <cellStyle name="20% - Ênfase 5" xfId="46" builtinId="46"/>
+    <cellStyle name="Moeda" xfId="47" builtinId="4"/>
+    <cellStyle name="Comma [0]" xfId="48" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF3399"/>
+      <color rgb="00FF3399"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -747,19 +1404,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEB0D51-E154-4DA2-8FBC-60EFBBA3F948}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -772,8 +1423,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634447" y="183933"/>
-          <a:ext cx="1055051" cy="901917"/>
+          <a:off x="721360" y="183515"/>
+          <a:ext cx="1054735" cy="902335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -785,31 +1436,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2867172</xdr:colOff>
+      <xdr:colOff>4191635</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>7766</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>388402</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>519700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEB645C-10AA-4A66-B235-31BA1621FD13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -822,8 +1467,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096147" y="188741"/>
-          <a:ext cx="1912255" cy="897109"/>
+          <a:off x="7881620" y="188595"/>
+          <a:ext cx="2538730" cy="896620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,24 +1487,18 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>294669</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>169666</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDBD17A-E494-4880-9F3E-E11A6A95AC58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Imagem 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -872,8 +1511,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7715250" y="0"/>
-          <a:ext cx="4466619" cy="4655941"/>
+          <a:off x="9996170" y="0"/>
+          <a:ext cx="5075555" cy="4655820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,7 +1525,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -902,19 +1541,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76406F6-81CC-4D4C-8814-0A6D98E8F24D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Imagem 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -927,8 +1560,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="634447" y="183933"/>
-          <a:ext cx="1108628" cy="907683"/>
+          <a:off x="721360" y="183515"/>
+          <a:ext cx="1108710" cy="908050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,19 +1585,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E57DA4-4580-4F6D-8364-90F1B4406D2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Imagem 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -977,8 +1604,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505701" y="188741"/>
-          <a:ext cx="1988602" cy="893305"/>
+          <a:off x="8120380" y="188595"/>
+          <a:ext cx="2673985" cy="893445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,24 +1624,18 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>75594</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>56502</xdr:rowOff>
+      <xdr:row>1048575</xdr:row>
+      <xdr:rowOff>132702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF00373-16E1-4A99-932C-9BEF5BA45547}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Imagem 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1027,8 +1648,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4238625" y="2647950"/>
-          <a:ext cx="4942869" cy="5152377"/>
+          <a:off x="4766310" y="2581275"/>
+          <a:ext cx="5715635" cy="5151755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,23 +1669,17 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>100727</xdr:rowOff>
+      <xdr:rowOff>176927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5" descr="A Matemática não mente. Mente quem faz mau uso dela.... Frase de Albert Einstein.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFF96A9-DF36-4AFC-BB21-7D2CC0B46B19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Imagem 5" descr="A Matemática não mente. Mente quem faz mau uso dela.... Frase de Albert Einstein."/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1076,10 +1691,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="619125" y="2809875"/>
-          <a:ext cx="3076575" cy="1615202"/>
+          <a:off x="706120" y="2724150"/>
+          <a:ext cx="3517265" cy="1614805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,24 +1723,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8" descr="A matemática é a honra do espírito humano.... Frase de Platão.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40706D59-DE6C-4561-BE98-43F18AF7F146}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Imagem 8" descr="A matemática é a honra do espírito humano.... Frase de Platão."/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1137,10 +1746,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="4514850"/>
-          <a:ext cx="3105150" cy="1863090"/>
+          <a:off x="696595" y="4343400"/>
+          <a:ext cx="3545840" cy="1863090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,24 +1778,18 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>1048575</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagem 9" descr="A matemática é a única ciência exata em que nunca se sabe do que se está a falar nem se aquilo que se diz é verdadeiro.... Frase de Bertrand Russell.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3D8B8D-C6EA-4B25-A241-C3C044BC120B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Imagem 9" descr="A matemática é a única ciência exata em que nunca se sabe do que se está a falar nem se aquilo que se diz é verdadeiro.... Frase de Bertrand Russell."/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1198,10 +1801,10 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="609601" y="6429374"/>
-          <a:ext cx="3086100" cy="1447801"/>
+          <a:off x="696595" y="6162040"/>
+          <a:ext cx="3526790" cy="1448435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1475,493 +2078,524 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.14166666666667" customWidth="1"/>
+    <col min="2" max="2" width="25.2833333333333" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" hidden="1"/>
+    <col min="4" max="4" width="64.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.1666666666667" customWidth="1"/>
+    <col min="6" max="13" width="9.14166666666667" customWidth="1"/>
+    <col min="14" max="16384" width="9.14166666666667" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="14.25">
-      <c r="A1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.25">
-      <c r="B2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="14.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="14.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" ht="14.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" ht="14.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" s="12" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:5" ht="26.25">
-      <c r="B8" s="27" t="s">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:1">
+      <c r="A1" s="10"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25">
-      <c r="B9" s="28" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.25" spans="2:5">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.25"/>
+    <row r="8" ht="25.5" spans="2:5">
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="20" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:5">
+      <c r="B9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="20" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:5">
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="20" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:5">
+      <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="22" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" ht="14.25" spans="2:5">
+      <c r="B12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="6" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:5">
+      <c r="B13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:5">
+      <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:5">
+      <c r="B15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="10" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:4">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:5">
+      <c r="B17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" ht="14.25" spans="2:5">
+      <c r="B18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" ht="14.25" spans="2:5">
+      <c r="B19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="20">
         <f>3*3+2</f>
         <v>11</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="D19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:5">
+      <c r="B20" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="20">
         <f>(3*(3+2))</f>
         <v>15</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="10" t="s">
+      <c r="D20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:5">
+      <c r="B21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="20">
+        <v>21</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:5">
+      <c r="B22" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="20">
+        <v>48</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:5">
+      <c r="B23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="20">
+        <v>45</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:5">
+      <c r="B24" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="22">
+        <v>225</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:5">
+      <c r="B25" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="22">
+        <v>576</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" ht="14.25" spans="2:5">
+      <c r="B26" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="20">
         <v>10</v>
       </c>
-      <c r="C21" s="8">
-        <v>21</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="10" t="s">
+      <c r="D26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" ht="14.25" spans="2:5">
+      <c r="B27" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" ht="14.25" spans="2:5">
+      <c r="B28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="20">
+        <v>50</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" ht="14.25" spans="2:5">
+      <c r="B29" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="20">
+        <v>8</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" ht="14.25"/>
+    <row r="31" ht="19.5" spans="2:2">
+      <c r="B31" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="2:2">
+      <c r="B32" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25"/>
+    <row r="34" s="9" customFormat="1" ht="19.5" spans="2:2">
+      <c r="B34" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B35" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="14.25"/>
+    <row r="37" s="9" customFormat="1" ht="19.5" spans="2:2">
+      <c r="B37" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" s="9" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B38" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="8">
-        <v>48</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="10" t="s">
+    </row>
+    <row r="39" s="9" customFormat="1" ht="14.25"/>
+    <row r="40" s="9" customFormat="1" ht="19.5" spans="2:2">
+      <c r="B40" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="8">
-        <v>45</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="19" t="s">
+    </row>
+    <row r="41" s="9" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B41" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="9">
-        <v>225</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="9">
-        <v>576</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8">
-        <v>10</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="8">
-        <v>50</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8">
-        <v>8</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="2:5"/>
-    <row r="31" spans="2:5" ht="21">
-      <c r="B31" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2"/>
-    <row r="34" spans="2:2" s="13" customFormat="1" ht="21">
-      <c r="B34" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" s="13" customFormat="1">
-      <c r="B35" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" s="13" customFormat="1"/>
-    <row r="37" spans="2:2" s="13" customFormat="1" ht="21">
-      <c r="B37" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" s="13" customFormat="1">
-      <c r="B38" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" s="13" customFormat="1"/>
-    <row r="40" spans="2:2" s="13" customFormat="1" ht="21">
-      <c r="B40" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" s="13" customFormat="1">
-      <c r="B41" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2"/>
+    </row>
+    <row r="42" ht="14.25"/>
+    <row r="43" ht="14.25" hidden="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="B2:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" xr:uid="{1E2CEB26-31CF-4FAC-9AC3-5BE127AA7C7D}"/>
-    <hyperlink ref="B41" r:id="rId2" xr:uid="{19637192-80FB-49A7-87FD-E53BA672DF46}"/>
-    <hyperlink ref="B32" r:id="rId3" xr:uid="{A1C6F8BE-6A9B-4D0A-9957-76C9C222A21D}"/>
-    <hyperlink ref="B38" r:id="rId4" xr:uid="{9B1827F5-B5A9-4BFA-8893-EFEFB2A20C94}"/>
+    <hyperlink ref="B35" r:id="rId2" display="https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-no-excel-48be406d-4975-4d31-b2b8-7af9e0e2878a"/>
+    <hyperlink ref="B41" r:id="rId3" display="https://support.microsoft.com/pt-br/office/usando-caracteres-curinga-em-pesquisas-ef94362e-9999-4350-ad74-4d2371110adb"/>
+    <hyperlink ref="B32" r:id="rId4" display="https://support.microsoft.com/pt-br/office/a-ordem-em-que-o-excel-efetua-opera%C3%A7%C3%B5es-em-f%C3%B3rmulas-28eaf0d7-7058-4eff-a8ea-0a835fafadb8"/>
+    <hyperlink ref="B38" r:id="rId5" display="https://support.microsoft.com/pt-br/office/operadores-de-c%C3%A1lculo-e-preced%C3%AAncia-36de9366-46fe-43a3-bfa8-cf6d8068eacc"/>
   </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.14166666666667" customWidth="1"/>
+    <col min="2" max="2" width="46.2833333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.14166666666667" customWidth="1"/>
     <col min="4" max="4" width="72" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" hidden="1"/>
+    <col min="5" max="5" width="9.14166666666667" customWidth="1"/>
+    <col min="6" max="16384" width="9.14166666666667" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="12" customFormat="1">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:1">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="14.25">
-      <c r="B2" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" s="12" customFormat="1" ht="14.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" s="12" customFormat="1" ht="14.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" s="12" customFormat="1" ht="14.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" s="12" customFormat="1" ht="14.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="14.25"/>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="2:4">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="2:4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="2:4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="2:4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="14.25" spans="2:4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="14.25"/>
+    <row r="8" ht="14.25" spans="2:4">
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="2:4">
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="2:4">
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8">
         <v>50</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="2:4">
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:4">
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="2:4">
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="2:4">
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4"/>
-    <row r="16" spans="1:4"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
+      <c r="D14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25"/>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25"/>
+    <row r="23" ht="14.25"/>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25"/>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25"/>
+    <row r="28" ht="14.25"/>
+    <row r="29" ht="14.25"/>
+    <row r="30" ht="14.25"/>
+    <row r="31" ht="14.25"/>
+    <row r="32" ht="14.25"/>
+    <row r="33" ht="14.25"/>
+    <row r="34" ht="14.25"/>
+    <row r="35" ht="14.25"/>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25"/>
+    <row r="38" ht="14.25"/>
+    <row r="39" ht="14.25"/>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25"/>
+    <row r="42" ht="14.25"/>
+    <row r="43" ht="14.25" hidden="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D6"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>